--- a/_Lang_Korean/Lang/KR/Game/Job.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/_Lang_Korean/Lang/KR/Game/Job.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Job.xlsx
@@ -343,7 +343,7 @@
     <t xml:space="preserve">bard</t>
   </si>
   <si>
-    <t xml:space="preserve">소리꾼</t>
+    <t xml:space="preserve">노래꾼</t>
   </si>
   <si>
     <t xml:space="preserve">唄い手</t>
@@ -498,9 +498,9 @@
       <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_Lang_Korean/Lang/KR/Game/Job.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.25</t>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>
